--- a/xtt_demo/ZXXT_DEMO_160_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_160_R.XLSX
@@ -27,96 +27,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <si>
-    <t>01/29/2022</t>
-  </si>
-  <si>
-    <t>03.06.2021</t>
-  </si>
-  <si>
-    <t>03/15/2021</t>
-  </si>
-  <si>
-    <t>05/28/2021</t>
-  </si>
-  <si>
-    <t>06/03/2021</t>
-  </si>
-  <si>
-    <t>06/28/2021</t>
-  </si>
-  <si>
-    <t>08/22/2021</t>
-  </si>
-  <si>
-    <t>10.11.2021</t>
-  </si>
-  <si>
-    <t>11/10/2021</t>
-  </si>
-  <si>
-    <t>12/25/2020</t>
-  </si>
-  <si>
-    <t>15.03.2021</t>
-  </si>
-  <si>
-    <t>2020-December-25</t>
-  </si>
-  <si>
-    <t>2020-Dezember-25</t>
-  </si>
-  <si>
-    <t>2021-August-22</t>
-  </si>
-  <si>
-    <t>2021-June-03</t>
-  </si>
-  <si>
-    <t>2021-June-28</t>
-  </si>
-  <si>
-    <t>2021-Juni-03</t>
-  </si>
-  <si>
-    <t>2021-Juni-28</t>
-  </si>
-  <si>
-    <t>2021-Mai-28</t>
-  </si>
-  <si>
-    <t>2021-March-15</t>
-  </si>
-  <si>
-    <t>2021-May-28</t>
-  </si>
-  <si>
-    <t>2021-März-15</t>
-  </si>
-  <si>
-    <t>2021-November-10</t>
-  </si>
-  <si>
-    <t>2022-Januar-29</t>
-  </si>
-  <si>
-    <t>2022-January-29</t>
-  </si>
-  <si>
-    <t>22.08.2021</t>
-  </si>
-  <si>
-    <t>25.12.2020</t>
-  </si>
-  <si>
-    <t>28.05.2021</t>
-  </si>
-  <si>
-    <t>28.06.2021</t>
-  </si>
-  <si>
-    <t>29.01.2022</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>01/22/2024</t>
+  </si>
+  <si>
+    <t>03.11.2023</t>
+  </si>
+  <si>
+    <t>04/11/2024</t>
+  </si>
+  <si>
+    <t>04/28/2024</t>
+  </si>
+  <si>
+    <t>05/28/2024</t>
+  </si>
+  <si>
+    <t>06/30/2024</t>
+  </si>
+  <si>
+    <t>07.12.2024</t>
+  </si>
+  <si>
+    <t>09/18/2024</t>
+  </si>
+  <si>
+    <t>11.04.2024</t>
+  </si>
+  <si>
+    <t>11/03/2023</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>18.09.2024</t>
+  </si>
+  <si>
+    <t>2023-November-03</t>
+  </si>
+  <si>
+    <t>2024-April-11</t>
+  </si>
+  <si>
+    <t>2024-April-28</t>
+  </si>
+  <si>
+    <t>2024-December-07</t>
+  </si>
+  <si>
+    <t>2024-Dezember-07</t>
+  </si>
+  <si>
+    <t>2024-Januar-22</t>
+  </si>
+  <si>
+    <t>2024-January-22</t>
+  </si>
+  <si>
+    <t>2024-June-30</t>
+  </si>
+  <si>
+    <t>2024-Juni-30</t>
+  </si>
+  <si>
+    <t>2024-Mai-28</t>
+  </si>
+  <si>
+    <t>2024-May-28</t>
+  </si>
+  <si>
+    <t>2024-September-18</t>
+  </si>
+  <si>
+    <t>22.01.2024</t>
+  </si>
+  <si>
+    <t>28.04.2024</t>
+  </si>
+  <si>
+    <t>28.05.2024</t>
+  </si>
+  <si>
+    <t>30.06.2024</t>
   </si>
   <si>
     <r>
@@ -682,56 +676,56 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7">
         <v>2402</v>
@@ -740,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>12</v>
@@ -748,13 +742,13 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="7">
         <v>2402</v>
@@ -763,21 +757,21 @@
         <v>2</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7">
         <v>2402</v>
@@ -786,21 +780,21 @@
         <v>3</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7">
         <v>2402</v>
@@ -812,18 +806,18 @@
         <v>14</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
         <v>2402</v>
@@ -832,21 +826,21 @@
         <v>5</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
         <v>2402</v>
@@ -855,21 +849,21 @@
         <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7">
         <v>2402</v>
@@ -878,21 +872,21 @@
         <v>7</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7">
         <v>2402</v>
@@ -901,21 +895,21 @@
         <v>8</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7">
         <v>0408</v>
@@ -924,7 +918,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>12</v>
@@ -932,13 +926,13 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7">
         <v>0408</v>
@@ -947,21 +941,21 @@
         <v>10</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="7">
         <v>0408</v>
@@ -970,21 +964,21 @@
         <v>11</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="7">
         <v>0408</v>
@@ -993,21 +987,21 @@
         <v>12</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" s="7">
         <v>0408</v>
@@ -1016,21 +1010,21 @@
         <v>13</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" s="7">
         <v>0408</v>
@@ -1039,21 +1033,21 @@
         <v>14</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7">
         <v>0400</v>
@@ -1062,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>12</v>
@@ -1093,56 +1087,56 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7">
         <v>2402</v>
@@ -1151,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>9</v>
@@ -1159,13 +1153,13 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="7">
         <v>2402</v>
@@ -1174,21 +1168,21 @@
         <v>2</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7">
         <v>2402</v>
@@ -1197,21 +1191,21 @@
         <v>3</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7">
         <v>2402</v>
@@ -1220,21 +1214,21 @@
         <v>4</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
         <v>2402</v>
@@ -1243,21 +1237,21 @@
         <v>5</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
         <v>2402</v>
@@ -1266,21 +1260,21 @@
         <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7">
         <v>2402</v>
@@ -1289,21 +1283,21 @@
         <v>7</v>
       </c>
       <c r="F14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7">
         <v>2402</v>
@@ -1312,21 +1306,21 @@
         <v>8</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7">
         <v>0408</v>
@@ -1335,7 +1329,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>9</v>
@@ -1343,13 +1337,13 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7">
         <v>0408</v>
@@ -1358,21 +1352,21 @@
         <v>10</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="7">
         <v>0408</v>
@@ -1381,21 +1375,21 @@
         <v>11</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="7">
         <v>0408</v>
@@ -1404,21 +1398,21 @@
         <v>12</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" s="7">
         <v>0408</v>
@@ -1427,21 +1421,21 @@
         <v>13</v>
       </c>
       <c r="F20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" s="7">
         <v>0408</v>
@@ -1450,21 +1444,21 @@
         <v>14</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7">
         <v>0400</v>
@@ -1473,7 +1467,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>9</v>
@@ -1505,17 +1499,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -1525,329 +1519,329 @@
     </row>
     <row r="6">
       <c r="D6" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="11">
-        <v>44190.000000000000</v>
+        <v>45233.000000000000</v>
       </c>
       <c r="D8" s="12">
-        <v>44190.000000000000</v>
+        <v>45233.000000000000</v>
       </c>
       <c r="E8" s="13">
-        <v>44190.000000000000</v>
+        <v>45233.000000000000</v>
       </c>
       <c r="F8" s="14">
-        <v>44190.000000000000</v>
+        <v>45233.000000000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="11">
-        <v>44270.000000000000</v>
+        <v>45313.000000000000</v>
       </c>
       <c r="D9" s="12">
-        <v>44270.000000000000</v>
+        <v>45313.000000000000</v>
       </c>
       <c r="E9" s="13">
-        <v>44270.000000000000</v>
+        <v>45313.000000000000</v>
       </c>
       <c r="F9" s="14">
-        <v>44270.000000000000</v>
+        <v>45313.000000000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="11">
-        <v>44344.000000000000</v>
+        <v>45393.000000000000</v>
       </c>
       <c r="D10" s="12">
-        <v>44344.000000000000</v>
+        <v>45393.000000000000</v>
       </c>
       <c r="E10" s="13">
-        <v>44344.000000000000</v>
+        <v>45393.000000000000</v>
       </c>
       <c r="F10" s="14">
-        <v>44344.000000000000</v>
+        <v>45393.000000000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="11">
-        <v>44350.000000000000</v>
+        <v>45410.000000000000</v>
       </c>
       <c r="D11" s="12">
-        <v>44350.000000000000</v>
+        <v>45410.000000000000</v>
       </c>
       <c r="E11" s="13">
-        <v>44350.000000000000</v>
+        <v>45410.000000000000</v>
       </c>
       <c r="F11" s="14">
-        <v>44350.000000000000</v>
+        <v>45410.000000000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="11">
-        <v>44375.000000000000</v>
+        <v>45440.000000000000</v>
       </c>
       <c r="D12" s="12">
-        <v>44375.000000000000</v>
+        <v>45440.000000000000</v>
       </c>
       <c r="E12" s="13">
-        <v>44375.000000000000</v>
+        <v>45440.000000000000</v>
       </c>
       <c r="F12" s="14">
-        <v>44375.000000000000</v>
+        <v>45440.000000000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="11">
-        <v>44430.000000000000</v>
+        <v>45473.000000000000</v>
       </c>
       <c r="D13" s="12">
-        <v>44430.000000000000</v>
+        <v>45473.000000000000</v>
       </c>
       <c r="E13" s="13">
-        <v>44430.000000000000</v>
+        <v>45473.000000000000</v>
       </c>
       <c r="F13" s="14">
-        <v>44430.000000000000</v>
+        <v>45473.000000000000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="11">
-        <v>44510.000000000000</v>
+        <v>45553.000000000000</v>
       </c>
       <c r="D14" s="12">
-        <v>44510.000000000000</v>
+        <v>45553.000000000000</v>
       </c>
       <c r="E14" s="13">
-        <v>44510.000000000000</v>
+        <v>45553.000000000000</v>
       </c>
       <c r="F14" s="14">
-        <v>44510.000000000000</v>
+        <v>45553.000000000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11">
-        <v>44590.000000000000</v>
+        <v>45633.000000000000</v>
       </c>
       <c r="D15" s="12">
-        <v>44590.000000000000</v>
+        <v>45633.000000000000</v>
       </c>
       <c r="E15" s="13">
-        <v>44590.000000000000</v>
+        <v>45633.000000000000</v>
       </c>
       <c r="F15" s="14">
-        <v>44590.000000000000</v>
+        <v>45633.000000000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="11">
-        <v>44190.000000000000</v>
+        <v>45233.000000000000</v>
       </c>
       <c r="D16" s="12">
-        <v>44190.000000000000</v>
+        <v>45233.000000000000</v>
       </c>
       <c r="E16" s="13">
-        <v>44190.000000000000</v>
+        <v>45233.000000000000</v>
       </c>
       <c r="F16" s="14">
-        <v>44190.000000000000</v>
+        <v>45233.000000000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="11">
-        <v>44270.000000000000</v>
+        <v>45313.000000000000</v>
       </c>
       <c r="D17" s="12">
-        <v>44270.000000000000</v>
+        <v>45313.000000000000</v>
       </c>
       <c r="E17" s="13">
-        <v>44270.000000000000</v>
+        <v>45313.000000000000</v>
       </c>
       <c r="F17" s="14">
-        <v>44270.000000000000</v>
+        <v>45313.000000000000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="11">
-        <v>44350.000000000000</v>
+        <v>45393.000000000000</v>
       </c>
       <c r="D18" s="12">
-        <v>44350.000000000000</v>
+        <v>45393.000000000000</v>
       </c>
       <c r="E18" s="13">
-        <v>44350.000000000000</v>
+        <v>45393.000000000000</v>
       </c>
       <c r="F18" s="14">
-        <v>44350.000000000000</v>
+        <v>45393.000000000000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="11">
-        <v>44430.000000000000</v>
+        <v>45473.000000000000</v>
       </c>
       <c r="D19" s="12">
-        <v>44430.000000000000</v>
+        <v>45473.000000000000</v>
       </c>
       <c r="E19" s="13">
-        <v>44430.000000000000</v>
+        <v>45473.000000000000</v>
       </c>
       <c r="F19" s="14">
-        <v>44430.000000000000</v>
+        <v>45473.000000000000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="11">
-        <v>44510.000000000000</v>
+        <v>45553.000000000000</v>
       </c>
       <c r="D20" s="12">
-        <v>44510.000000000000</v>
+        <v>45553.000000000000</v>
       </c>
       <c r="E20" s="13">
-        <v>44510.000000000000</v>
+        <v>45553.000000000000</v>
       </c>
       <c r="F20" s="14">
-        <v>44510.000000000000</v>
+        <v>45553.000000000000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="11">
-        <v>44590.000000000000</v>
+        <v>45633.000000000000</v>
       </c>
       <c r="D21" s="12">
-        <v>44590.000000000000</v>
+        <v>45633.000000000000</v>
       </c>
       <c r="E21" s="13">
-        <v>44590.000000000000</v>
+        <v>45633.000000000000</v>
       </c>
       <c r="F21" s="14">
-        <v>44590.000000000000</v>
+        <v>45633.000000000000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="11">
-        <v>44190.000000000000</v>
+        <v>45233.000000000000</v>
       </c>
       <c r="D22" s="12">
-        <v>44190.000000000000</v>
+        <v>45233.000000000000</v>
       </c>
       <c r="E22" s="13">
-        <v>44190.000000000000</v>
+        <v>45233.000000000000</v>
       </c>
       <c r="F22" s="14">
-        <v>44190.000000000000</v>
+        <v>45233.000000000000</v>
       </c>
     </row>
   </sheetData>
